--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -30,7 +30,7 @@
     <t>Seminar_1_25.10.22</t>
   </si>
   <si>
-    <t>Seminar_2_01.11.2022</t>
+    <t>Seminar_2_01,11,2022</t>
   </si>
   <si>
     <t>Seminar_3_08.10.2022</t>
@@ -315,6 +315,12 @@
     <t>st096360</t>
   </si>
   <si>
+    <t>Куликова</t>
+  </si>
+  <si>
+    <t>st113500</t>
+  </si>
+  <si>
     <t>Бакулина</t>
   </si>
   <si>
@@ -402,6 +408,24 @@
     <t>st068842</t>
   </si>
   <si>
+    <t>Измаилова</t>
+  </si>
+  <si>
+    <t>Зари</t>
+  </si>
+  <si>
+    <t>st088302</t>
+  </si>
+  <si>
+    <t>Симеунович</t>
+  </si>
+  <si>
+    <t>Давид</t>
+  </si>
+  <si>
+    <t>st093258</t>
+  </si>
+  <si>
     <t>Дудина</t>
   </si>
   <si>
@@ -850,30 +874,6 @@
   </si>
   <si>
     <t>st113681</t>
-  </si>
-  <si>
-    <t>Измаилова</t>
-  </si>
-  <si>
-    <t>Зари</t>
-  </si>
-  <si>
-    <t>st088302</t>
-  </si>
-  <si>
-    <t>Куликова</t>
-  </si>
-  <si>
-    <t>st113500</t>
-  </si>
-  <si>
-    <t>Симеунович</t>
-  </si>
-  <si>
-    <t>Давид</t>
-  </si>
-  <si>
-    <t>st093258</t>
   </si>
   <si>
     <t>Юшина</t>
@@ -987,6 +987,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -999,9 +1002,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1220,6 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1284,6 +1285,9 @@
       <c r="E2" s="6">
         <v>1.5</v>
       </c>
+      <c r="F2" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1301,6 +1305,9 @@
       <c r="E3" s="6">
         <v>1.5</v>
       </c>
+      <c r="F3" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1318,6 +1325,9 @@
       <c r="E4" s="6">
         <v>1.5</v>
       </c>
+      <c r="F4" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1335,6 +1345,9 @@
       <c r="E5" s="6">
         <v>1.0</v>
       </c>
+      <c r="F5" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1352,6 +1365,9 @@
       <c r="E6" s="6">
         <v>1.0</v>
       </c>
+      <c r="F6" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -1369,6 +1385,9 @@
       <c r="E7" s="6">
         <v>1.5</v>
       </c>
+      <c r="F7" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1386,6 +1405,9 @@
       <c r="E8" s="6">
         <v>1.0</v>
       </c>
+      <c r="F8" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1403,6 +1425,9 @@
       <c r="E9" s="6">
         <v>0.0</v>
       </c>
+      <c r="F9" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1420,6 +1445,9 @@
       <c r="E10" s="6">
         <v>1.0</v>
       </c>
+      <c r="F10" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -1437,6 +1465,9 @@
       <c r="E11" s="6">
         <v>1.0</v>
       </c>
+      <c r="F11" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -1454,6 +1485,9 @@
       <c r="E12" s="6">
         <v>1.0</v>
       </c>
+      <c r="F12" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1471,6 +1505,9 @@
       <c r="E13" s="6">
         <v>1.0</v>
       </c>
+      <c r="F13" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -1488,6 +1525,9 @@
       <c r="E14" s="6">
         <v>1.0</v>
       </c>
+      <c r="F14" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -1505,6 +1545,9 @@
       <c r="E15" s="6">
         <v>1.5</v>
       </c>
+      <c r="F15" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1522,6 +1565,9 @@
       <c r="E16" s="6">
         <v>1.0</v>
       </c>
+      <c r="F16" s="6">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1539,6 +1585,9 @@
       <c r="E17" s="6">
         <v>1.5</v>
       </c>
+      <c r="F17" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -1556,6 +1605,9 @@
       <c r="E18" s="6">
         <v>1.5</v>
       </c>
+      <c r="F18" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1573,6 +1625,9 @@
       <c r="E19" s="6">
         <v>1.0</v>
       </c>
+      <c r="F19" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -1590,6 +1645,9 @@
       <c r="E20" s="6">
         <v>1.5</v>
       </c>
+      <c r="F20" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -1607,6 +1665,9 @@
       <c r="E21" s="6">
         <v>1.0</v>
       </c>
+      <c r="F21" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1624,6 +1685,9 @@
       <c r="E22" s="6">
         <v>1.5</v>
       </c>
+      <c r="F22" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -1641,6 +1705,9 @@
       <c r="E23" s="6">
         <v>0.0</v>
       </c>
+      <c r="F23" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -1658,6 +1725,9 @@
       <c r="E24" s="6">
         <v>1.0</v>
       </c>
+      <c r="F24" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -1675,6 +1745,9 @@
       <c r="E25" s="6">
         <v>0.0</v>
       </c>
+      <c r="F25" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1692,6 +1765,9 @@
       <c r="E26" s="6">
         <v>1.1</v>
       </c>
+      <c r="F26" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
@@ -1709,6 +1785,9 @@
       <c r="E27" s="6">
         <v>1.0</v>
       </c>
+      <c r="F27" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -1726,6 +1805,9 @@
       <c r="E28" s="6">
         <v>1.5</v>
       </c>
+      <c r="F28" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
@@ -1743,6 +1825,9 @@
       <c r="E29" s="6">
         <v>1.0</v>
       </c>
+      <c r="F29" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
@@ -1760,6 +1845,9 @@
       <c r="E30" s="6">
         <v>1.5</v>
       </c>
+      <c r="F30" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -1777,6 +1865,9 @@
       <c r="E31" s="6">
         <v>1.5</v>
       </c>
+      <c r="F31" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
@@ -1794,6 +1885,9 @@
       <c r="E32" s="6">
         <v>1.0</v>
       </c>
+      <c r="F32" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
@@ -1811,47 +1905,56 @@
       <c r="E33" s="6">
         <v>1.5</v>
       </c>
+      <c r="F33" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3.0</v>
+      <c r="D34" s="7">
+        <v>2.0</v>
       </c>
       <c r="E34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D35" s="5">
         <v>3.0</v>
       </c>
       <c r="E35" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>107</v>
@@ -1860,6 +1963,9 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="6">
         <v>1.5</v>
       </c>
     </row>
@@ -1868,7 +1974,7 @@
         <v>108</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>109</v>
@@ -1877,7 +1983,10 @@
         <v>3.0</v>
       </c>
       <c r="E37" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
@@ -1885,10 +1994,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="5">
         <v>3.0</v>
@@ -1896,33 +2005,39 @@
       <c r="E38" s="6">
         <v>1.0</v>
       </c>
+      <c r="F38" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="5">
         <v>3.0</v>
       </c>
       <c r="E39" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D40" s="5">
         <v>3.0</v>
@@ -1930,13 +2045,16 @@
       <c r="E40" s="6">
         <v>1.5</v>
       </c>
+      <c r="F40" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>120</v>
@@ -1945,7 +2063,10 @@
         <v>3.0</v>
       </c>
       <c r="E41" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -1953,13 +2074,19 @@
         <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D42" s="5">
         <v>3.0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1967,61 +2094,67 @@
         <v>123</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D43" s="5">
         <v>3.0</v>
       </c>
+      <c r="F43" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="D44" s="5">
         <v>3.0</v>
       </c>
+      <c r="F44" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D45" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1.1</v>
+        <v>3.0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1.2</v>
+      <c r="D46" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2029,44 +2162,44 @@
         <v>134</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1.0</v>
+        <v>136</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="5">
         <v>4.0</v>
       </c>
       <c r="E48" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F48" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="5">
         <v>4.0</v>
@@ -2074,33 +2207,39 @@
       <c r="E49" s="6">
         <v>1.2</v>
       </c>
+      <c r="F49" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" s="5">
         <v>4.0</v>
       </c>
       <c r="E50" s="6">
-        <v>1.3</v>
+        <v>1.0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D51" s="5">
         <v>4.0</v>
@@ -2108,30 +2247,36 @@
       <c r="E51" s="6">
         <v>1.5</v>
       </c>
+      <c r="F51" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="5">
         <v>4.0</v>
       </c>
       <c r="E52" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="F52" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>149</v>
@@ -2140,7 +2285,10 @@
         <v>4.0</v>
       </c>
       <c r="E53" s="6">
-        <v>1.0</v>
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="54">
@@ -2148,61 +2296,70 @@
         <v>150</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="5">
         <v>4.0</v>
       </c>
       <c r="E54" s="6">
-        <v>1.1</v>
+        <v>1.5</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="5">
         <v>4.0</v>
       </c>
       <c r="E55" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="5">
         <v>4.0</v>
       </c>
       <c r="E56" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="5">
         <v>4.0</v>
@@ -2210,13 +2367,16 @@
       <c r="E57" s="6">
         <v>1.1</v>
       </c>
+      <c r="F57" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="9" t="s">
         <v>160</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>161</v>
@@ -2225,7 +2385,10 @@
         <v>4.0</v>
       </c>
       <c r="E58" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="59">
@@ -2233,24 +2396,24 @@
         <v>162</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" s="5">
         <v>4.0</v>
       </c>
       <c r="E59" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>166</v>
@@ -2259,6 +2422,9 @@
         <v>4.0</v>
       </c>
       <c r="E60" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="F60" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -2266,144 +2432,168 @@
       <c r="A61" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>15</v>
+      <c r="B61" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E61" s="10">
-        <v>1.5</v>
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D62" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1.1</v>
+        <v>4.0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D63" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E63" s="10">
-        <v>1.3</v>
+        <v>4.0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D64" s="5">
         <v>5.0</v>
       </c>
-      <c r="E64" s="10">
-        <v>1.3</v>
+      <c r="E64" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D65" s="5">
         <v>5.0</v>
       </c>
-      <c r="E65" s="10">
-        <v>1.5</v>
+      <c r="E65" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D66" s="5">
         <v>5.0</v>
       </c>
-      <c r="E66" s="10">
-        <v>1.1</v>
+      <c r="E66" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D67" s="5">
         <v>5.0</v>
       </c>
-      <c r="E67" s="10">
-        <v>1.5</v>
+      <c r="E67" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68" s="5">
         <v>5.0</v>
       </c>
-      <c r="E68" s="10">
-        <v>0.1</v>
+      <c r="E68" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>187</v>
@@ -2411,8 +2601,11 @@
       <c r="D69" s="5">
         <v>5.0</v>
       </c>
-      <c r="E69" s="10">
-        <v>1.3</v>
+      <c r="E69" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -2420,7 +2613,7 @@
         <v>188</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>189</v>
@@ -2428,8 +2621,11 @@
       <c r="D70" s="5">
         <v>5.0</v>
       </c>
-      <c r="E70" s="10">
-        <v>1.5</v>
+      <c r="E70" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -2437,67 +2633,79 @@
         <v>190</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D71" s="5">
         <v>5.0</v>
       </c>
       <c r="E71" s="11">
-        <v>0.0</v>
+        <v>0.1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" s="5">
         <v>5.0</v>
       </c>
-      <c r="E72" s="10">
-        <v>1.2</v>
+      <c r="E72" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="5">
         <v>5.0</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F73" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D74" s="5">
         <v>5.0</v>
       </c>
-      <c r="E74" s="10">
-        <v>1.3</v>
+      <c r="E74" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -2505,67 +2713,79 @@
         <v>200</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D75" s="5">
         <v>5.0</v>
       </c>
       <c r="E75" s="11">
-        <v>0.0</v>
+        <v>1.2</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D76" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1.5</v>
+        <v>5.0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1.3</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="8" t="s">
         <v>206</v>
       </c>
+      <c r="C77" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="D77" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1.5</v>
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D78" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1.5</v>
+        <v>5.0</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1.4</v>
       </c>
     </row>
     <row r="79">
@@ -2573,7 +2793,7 @@
         <v>210</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>211</v>
@@ -2582,6 +2802,9 @@
         <v>6.0</v>
       </c>
       <c r="E79" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="11">
         <v>1.5</v>
       </c>
     </row>
@@ -2599,6 +2822,9 @@
         <v>6.0</v>
       </c>
       <c r="E80" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="12">
         <v>0.0</v>
       </c>
     </row>
@@ -2618,16 +2844,19 @@
       <c r="E81" s="6">
         <v>1.5</v>
       </c>
+      <c r="F81" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D82" s="5">
         <v>6.0</v>
@@ -2635,13 +2864,16 @@
       <c r="E82" s="6">
         <v>1.5</v>
       </c>
+      <c r="F82" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>222</v>
@@ -2650,7 +2882,10 @@
         <v>6.0</v>
       </c>
       <c r="E83" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -2658,10 +2893,10 @@
         <v>223</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D84" s="5">
         <v>6.0</v>
@@ -2669,16 +2904,19 @@
       <c r="E84" s="6">
         <v>1.5</v>
       </c>
+      <c r="F84" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D85" s="5">
         <v>6.0</v>
@@ -2686,16 +2924,19 @@
       <c r="E85" s="6">
         <v>1.5</v>
       </c>
+      <c r="F85" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D86" s="5">
         <v>6.0</v>
@@ -2703,16 +2944,19 @@
       <c r="E86" s="6">
         <v>1.5</v>
       </c>
+      <c r="F86" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D87" s="5">
         <v>6.0</v>
@@ -2720,16 +2964,19 @@
       <c r="E87" s="6">
         <v>1.5</v>
       </c>
+      <c r="F87" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D88" s="5">
         <v>6.0</v>
@@ -2737,16 +2984,19 @@
       <c r="E88" s="6">
         <v>1.5</v>
       </c>
+      <c r="F88" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D89" s="5">
         <v>6.0</v>
@@ -2754,16 +3004,19 @@
       <c r="E89" s="6">
         <v>1.5</v>
       </c>
+      <c r="F89" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="5">
         <v>6.0</v>
@@ -2771,64 +3024,76 @@
       <c r="E90" s="6">
         <v>1.5</v>
       </c>
+      <c r="F90" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D91" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E91" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D92" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E92" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D93" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E93" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>246</v>
@@ -2837,7 +3102,10 @@
         <v>7.0</v>
       </c>
       <c r="E94" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="95">
@@ -2845,7 +3113,7 @@
         <v>247</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>248</v>
@@ -2854,6 +3122,9 @@
         <v>7.0</v>
       </c>
       <c r="E95" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F95" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -2862,10 +3133,10 @@
         <v>249</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D96" s="5">
         <v>7.0</v>
@@ -2873,67 +3144,79 @@
       <c r="E96" s="6">
         <v>1.0</v>
       </c>
+      <c r="F96" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D97" s="5">
         <v>7.0</v>
       </c>
       <c r="E97" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D98" s="5">
         <v>7.0</v>
       </c>
       <c r="E98" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D99" s="5">
         <v>7.0</v>
       </c>
       <c r="E99" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D100" s="5">
         <v>7.0</v>
@@ -2941,47 +3224,56 @@
       <c r="E100" s="6">
         <v>1.0</v>
       </c>
+      <c r="F100" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D101" s="5">
         <v>7.0</v>
       </c>
       <c r="E101" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D102" s="5">
         <v>7.0</v>
       </c>
       <c r="E102" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>267</v>
@@ -2990,7 +3282,10 @@
         <v>7.0</v>
       </c>
       <c r="E103" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
@@ -2998,10 +3293,10 @@
         <v>268</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D104" s="5">
         <v>7.0</v>
@@ -3009,13 +3304,16 @@
       <c r="E104" s="6">
         <v>1.0</v>
       </c>
+      <c r="F104" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>272</v>
@@ -3024,7 +3322,10 @@
         <v>7.0</v>
       </c>
       <c r="E105" s="6">
-        <v>0.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="106">
@@ -3043,51 +3344,68 @@
       <c r="E106" s="6">
         <v>1.5</v>
       </c>
+      <c r="F106" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="13">
+      <c r="D107" s="5">
         <v>7.0</v>
       </c>
       <c r="E107" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D108" s="13"/>
+      <c r="D108" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="5">
         <v>7.0</v>
       </c>
       <c r="E109" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="110">
@@ -3097,10 +3415,18 @@
       <c r="B110" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D110" s="13"/>
+      <c r="D110" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
@@ -3112,22 +3438,25 @@
       <c r="C111" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D111" s="13"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D112" s="13"/>
+      <c r="D112" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$D$112"/>
+  <printOptions gridLines="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -12,6 +12,22 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="H58">
+      <text>
+        <t xml:space="preserve">15.11. была на семинаре мол.экол с группой 3
+	-Maria Skazina</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="291">
   <si>
@@ -30,19 +46,19 @@
     <t>Seminar_1_25.10.22</t>
   </si>
   <si>
-    <t>Seminar_2_01,11,2022</t>
-  </si>
-  <si>
-    <t>Seminar_3_08.10.2022</t>
-  </si>
-  <si>
-    <t>Seminar_4_15.10.2022</t>
-  </si>
-  <si>
-    <t>Seminar_5_22.10.2022</t>
-  </si>
-  <si>
-    <t>Seminar_6_29.10.2022</t>
+    <t>Seminar_2_01.11.2022</t>
+  </si>
+  <si>
+    <t>Seminar_3_08.11.2022</t>
+  </si>
+  <si>
+    <t>Seminar_4_15.11.2022</t>
+  </si>
+  <si>
+    <t>Seminar_5_22.11.2022</t>
+  </si>
+  <si>
+    <t>Seminar_6_29.11.2022</t>
   </si>
   <si>
     <t>Seminar_7_06.12.2022</t>
@@ -1288,6 +1304,12 @@
       <c r="F2" s="6">
         <v>0.0</v>
       </c>
+      <c r="G2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1308,6 +1330,12 @@
       <c r="F3" s="6">
         <v>1.5</v>
       </c>
+      <c r="G3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1328,6 +1356,12 @@
       <c r="F4" s="6">
         <v>1.0</v>
       </c>
+      <c r="G4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1348,6 +1382,12 @@
       <c r="F5" s="6">
         <v>1.5</v>
       </c>
+      <c r="G5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1368,6 +1408,12 @@
       <c r="F6" s="6">
         <v>1.0</v>
       </c>
+      <c r="G6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -1388,6 +1434,12 @@
       <c r="F7" s="6">
         <v>1.5</v>
       </c>
+      <c r="G7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1408,6 +1460,12 @@
       <c r="F8" s="6">
         <v>1.0</v>
       </c>
+      <c r="G8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1428,6 +1486,12 @@
       <c r="F9" s="6">
         <v>0.0</v>
       </c>
+      <c r="G9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1448,6 +1512,12 @@
       <c r="F10" s="6">
         <v>1.0</v>
       </c>
+      <c r="G10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -1468,6 +1538,12 @@
       <c r="F11" s="6">
         <v>1.0</v>
       </c>
+      <c r="G11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -1488,6 +1564,12 @@
       <c r="F12" s="6">
         <v>1.0</v>
       </c>
+      <c r="G12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1508,6 +1590,12 @@
       <c r="F13" s="6">
         <v>1.0</v>
       </c>
+      <c r="G13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -1528,6 +1616,12 @@
       <c r="F14" s="6">
         <v>1.0</v>
       </c>
+      <c r="G14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -1548,6 +1642,12 @@
       <c r="F15" s="6">
         <v>1.0</v>
       </c>
+      <c r="G15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1568,6 +1668,12 @@
       <c r="F16" s="6">
         <v>1.25</v>
       </c>
+      <c r="G16" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1588,6 +1694,12 @@
       <c r="F17" s="6">
         <v>1.5</v>
       </c>
+      <c r="G17" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -1608,6 +1720,12 @@
       <c r="F18" s="6">
         <v>1.0</v>
       </c>
+      <c r="G18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1628,6 +1746,12 @@
       <c r="F19" s="6">
         <v>1.0</v>
       </c>
+      <c r="G19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -1648,6 +1772,12 @@
       <c r="F20" s="6">
         <v>1.0</v>
       </c>
+      <c r="G20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -1668,6 +1798,12 @@
       <c r="F21" s="6">
         <v>1.0</v>
       </c>
+      <c r="G21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1688,6 +1824,12 @@
       <c r="F22" s="6">
         <v>1.0</v>
       </c>
+      <c r="G22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -1708,6 +1850,12 @@
       <c r="F23" s="6">
         <v>0.0</v>
       </c>
+      <c r="G23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -1728,6 +1876,12 @@
       <c r="F24" s="6">
         <v>1.0</v>
       </c>
+      <c r="G24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -1748,6 +1902,12 @@
       <c r="F25" s="6">
         <v>0.0</v>
       </c>
+      <c r="G25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1768,6 +1928,12 @@
       <c r="F26" s="6">
         <v>1.5</v>
       </c>
+      <c r="G26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
@@ -1788,6 +1954,12 @@
       <c r="F27" s="6">
         <v>1.0</v>
       </c>
+      <c r="G27" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -1808,6 +1980,12 @@
       <c r="F28" s="6">
         <v>1.0</v>
       </c>
+      <c r="G28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
@@ -1828,6 +2006,12 @@
       <c r="F29" s="6">
         <v>1.0</v>
       </c>
+      <c r="G29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
@@ -1848,6 +2032,12 @@
       <c r="F30" s="6">
         <v>1.0</v>
       </c>
+      <c r="G30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -1868,6 +2058,12 @@
       <c r="F31" s="6">
         <v>1.0</v>
       </c>
+      <c r="G31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
@@ -1888,6 +2084,12 @@
       <c r="F32" s="6">
         <v>1.0</v>
       </c>
+      <c r="G32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
@@ -1908,6 +2110,12 @@
       <c r="F33" s="6">
         <v>1.0</v>
       </c>
+      <c r="G33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
@@ -1928,6 +2136,12 @@
       <c r="F34" s="6">
         <v>1.0</v>
       </c>
+      <c r="G34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
@@ -1948,6 +2162,12 @@
       <c r="F35" s="6">
         <v>1.5</v>
       </c>
+      <c r="G35" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
@@ -1968,6 +2188,12 @@
       <c r="F36" s="6">
         <v>1.5</v>
       </c>
+      <c r="G36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
@@ -1988,6 +2214,12 @@
       <c r="F37" s="6">
         <v>1.5</v>
       </c>
+      <c r="G37" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
@@ -2003,9 +2235,15 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -2028,6 +2266,12 @@
       <c r="F39" s="6">
         <v>1.0</v>
       </c>
+      <c r="G39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
@@ -2048,6 +2292,12 @@
       <c r="F40" s="6">
         <v>1.5</v>
       </c>
+      <c r="G40" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
@@ -2060,13 +2310,19 @@
         <v>120</v>
       </c>
       <c r="D41" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E41" s="6">
         <v>1.5</v>
       </c>
       <c r="F41" s="6">
         <v>1.5</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -2088,6 +2344,12 @@
       <c r="F42" s="6">
         <v>1.0</v>
       </c>
+      <c r="G42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
@@ -2105,6 +2367,12 @@
       <c r="F43" s="6">
         <v>1.0</v>
       </c>
+      <c r="G43" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
@@ -2122,6 +2390,12 @@
       <c r="F44" s="6">
         <v>0.0</v>
       </c>
+      <c r="G44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
@@ -2139,6 +2413,12 @@
       <c r="F45" s="6">
         <v>1.0</v>
       </c>
+      <c r="G45" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
@@ -2156,6 +2436,12 @@
       <c r="F46" s="6">
         <v>1.0</v>
       </c>
+      <c r="G46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
@@ -2170,6 +2456,12 @@
       <c r="D47" s="7">
         <v>3.0</v>
       </c>
+      <c r="G47" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
@@ -2190,6 +2482,12 @@
       <c r="F48" s="6">
         <v>1.5</v>
       </c>
+      <c r="G48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
@@ -2210,6 +2508,12 @@
       <c r="F49" s="6">
         <v>1.5</v>
       </c>
+      <c r="G49" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
@@ -2230,6 +2534,12 @@
       <c r="F50" s="6">
         <v>1.0</v>
       </c>
+      <c r="G50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
@@ -2250,6 +2560,12 @@
       <c r="F51" s="6">
         <v>1.0</v>
       </c>
+      <c r="G51" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
@@ -2270,6 +2586,12 @@
       <c r="F52" s="6">
         <v>1.0</v>
       </c>
+      <c r="G52" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
@@ -2290,6 +2612,12 @@
       <c r="F53" s="6">
         <v>1.5</v>
       </c>
+      <c r="G53" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
@@ -2310,6 +2638,12 @@
       <c r="F54" s="6">
         <v>1.5</v>
       </c>
+      <c r="G54" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
@@ -2330,6 +2664,12 @@
       <c r="F55" s="6">
         <v>1.5</v>
       </c>
+      <c r="G55" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
@@ -2350,6 +2690,12 @@
       <c r="F56" s="6">
         <v>1.0</v>
       </c>
+      <c r="G56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
@@ -2370,6 +2716,12 @@
       <c r="F57" s="6">
         <v>1.5</v>
       </c>
+      <c r="G57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
@@ -2390,6 +2742,12 @@
       <c r="F58" s="6">
         <v>1.5</v>
       </c>
+      <c r="G58" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
@@ -2407,6 +2765,12 @@
       <c r="E59" s="6">
         <v>1.5</v>
       </c>
+      <c r="G59" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
@@ -2427,6 +2791,12 @@
       <c r="F60" s="6">
         <v>1.0</v>
       </c>
+      <c r="G60" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
@@ -2447,6 +2817,12 @@
       <c r="F61" s="6">
         <v>1.0</v>
       </c>
+      <c r="G61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
@@ -2467,6 +2843,12 @@
       <c r="F62" s="6">
         <v>1.0</v>
       </c>
+      <c r="G62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
@@ -2487,6 +2869,12 @@
       <c r="F63" s="6">
         <v>1.5</v>
       </c>
+      <c r="G63" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
@@ -2807,6 +3195,9 @@
       <c r="F79" s="11">
         <v>1.5</v>
       </c>
+      <c r="G79" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
@@ -2827,6 +3218,9 @@
       <c r="F80" s="12">
         <v>0.0</v>
       </c>
+      <c r="G80" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
@@ -2847,6 +3241,9 @@
       <c r="F81" s="11">
         <v>1.5</v>
       </c>
+      <c r="G81" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
@@ -2867,6 +3264,9 @@
       <c r="F82" s="11">
         <v>1.5</v>
       </c>
+      <c r="G82" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
@@ -2882,9 +3282,12 @@
         <v>6.0</v>
       </c>
       <c r="E83" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F83" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G83" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -2907,6 +3310,9 @@
       <c r="F84" s="11">
         <v>1.5</v>
       </c>
+      <c r="G84" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
@@ -2927,6 +3333,9 @@
       <c r="F85" s="6">
         <v>1.5</v>
       </c>
+      <c r="G85" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
@@ -2947,6 +3356,9 @@
       <c r="F86" s="11">
         <v>1.5</v>
       </c>
+      <c r="G86" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
@@ -2967,6 +3379,9 @@
       <c r="F87" s="11">
         <v>1.5</v>
       </c>
+      <c r="G87" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
@@ -2987,6 +3402,9 @@
       <c r="F88" s="11">
         <v>1.5</v>
       </c>
+      <c r="G88" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
@@ -3007,6 +3425,9 @@
       <c r="F89" s="11">
         <v>1.5</v>
       </c>
+      <c r="G89" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
@@ -3027,6 +3448,9 @@
       <c r="F90" s="11">
         <v>1.5</v>
       </c>
+      <c r="G90" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
@@ -3047,6 +3471,9 @@
       <c r="F91" s="11">
         <v>1.5</v>
       </c>
+      <c r="G91" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
@@ -3067,6 +3494,9 @@
       <c r="F92" s="11">
         <v>1.5</v>
       </c>
+      <c r="G92" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -3107,6 +3537,12 @@
       <c r="F94" s="6">
         <v>1.5</v>
       </c>
+      <c r="G94" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
@@ -3127,6 +3563,12 @@
       <c r="F95" s="6">
         <v>0.0</v>
       </c>
+      <c r="G95" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
@@ -3147,6 +3589,12 @@
       <c r="F96" s="6">
         <v>1.5</v>
       </c>
+      <c r="G96" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
@@ -3167,6 +3615,12 @@
       <c r="F97" s="6">
         <v>0.0</v>
       </c>
+      <c r="G97" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
@@ -3187,6 +3641,12 @@
       <c r="F98" s="6">
         <v>1.0</v>
       </c>
+      <c r="G98" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
@@ -3207,6 +3667,12 @@
       <c r="F99" s="6">
         <v>1.5</v>
       </c>
+      <c r="G99" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
@@ -3227,6 +3693,12 @@
       <c r="F100" s="6">
         <v>1.0</v>
       </c>
+      <c r="G100" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
@@ -3247,6 +3719,12 @@
       <c r="F101" s="6">
         <v>1.5</v>
       </c>
+      <c r="G101" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
@@ -3267,6 +3745,12 @@
       <c r="F102" s="6">
         <v>0.0</v>
       </c>
+      <c r="G102" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
@@ -3287,6 +3771,12 @@
       <c r="F103" s="6">
         <v>1.0</v>
       </c>
+      <c r="G103" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H103" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
@@ -3307,6 +3797,12 @@
       <c r="F104" s="6">
         <v>1.0</v>
       </c>
+      <c r="G104" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
@@ -3327,6 +3823,12 @@
       <c r="F105" s="6">
         <v>1.5</v>
       </c>
+      <c r="G105" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H105" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
@@ -3347,6 +3849,12 @@
       <c r="F106" s="6">
         <v>1.0</v>
       </c>
+      <c r="G106" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H106" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
@@ -3367,6 +3875,12 @@
       <c r="F107" s="6">
         <v>1.0</v>
       </c>
+      <c r="G107" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
@@ -3387,6 +3901,12 @@
       <c r="F108" s="6">
         <v>1.0</v>
       </c>
+      <c r="G108" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
@@ -3407,6 +3927,12 @@
       <c r="F109" s="6">
         <v>1.5</v>
       </c>
+      <c r="G109" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
@@ -3425,6 +3951,12 @@
         <v>1.5</v>
       </c>
       <c r="F110" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H110" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -3457,6 +3989,7 @@
   <printOptions gridLines="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -18,7 +18,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H58">
+    <comment authorId="0" ref="H42">
       <text>
         <t xml:space="preserve">15.11. была на семинаре мол.экол с группой 3
 	-Maria Skazina</t>
@@ -280,6 +280,12 @@
     <t>st101535</t>
   </si>
   <si>
+    <t>Куликова</t>
+  </si>
+  <si>
+    <t>st113500</t>
+  </si>
+  <si>
     <t>Петров</t>
   </si>
   <si>
@@ -331,12 +337,6 @@
     <t>st096360</t>
   </si>
   <si>
-    <t>Куликова</t>
-  </si>
-  <si>
-    <t>st113500</t>
-  </si>
-  <si>
     <t>Бакулина</t>
   </si>
   <si>
@@ -361,6 +361,15 @@
     <t>st094432</t>
   </si>
   <si>
+    <t>Измаилова</t>
+  </si>
+  <si>
+    <t>Зари</t>
+  </si>
+  <si>
+    <t>st088302</t>
+  </si>
+  <si>
     <t>Ковалева</t>
   </si>
   <si>
@@ -385,6 +394,120 @@
     <t>st096355</t>
   </si>
   <si>
+    <t>Кравченко</t>
+  </si>
+  <si>
+    <t>st096624</t>
+  </si>
+  <si>
+    <t>Круглова</t>
+  </si>
+  <si>
+    <t>st101518</t>
+  </si>
+  <si>
+    <t>Курпяева</t>
+  </si>
+  <si>
+    <t>st096304</t>
+  </si>
+  <si>
+    <t>Морд</t>
+  </si>
+  <si>
+    <t>Антоний</t>
+  </si>
+  <si>
+    <t>st101543</t>
+  </si>
+  <si>
+    <t>Паршина</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>st068842</t>
+  </si>
+  <si>
+    <t>Симеунович</t>
+  </si>
+  <si>
+    <t>Давид</t>
+  </si>
+  <si>
+    <t>st093258</t>
+  </si>
+  <si>
+    <t>Дудина</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>st101565</t>
+  </si>
+  <si>
+    <t>Ефременкова</t>
+  </si>
+  <si>
+    <t>st096616</t>
+  </si>
+  <si>
+    <t>Жданова</t>
+  </si>
+  <si>
+    <t>st101569</t>
+  </si>
+  <si>
+    <t>Жиляева</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>st101561</t>
+  </si>
+  <si>
+    <t>st094429</t>
+  </si>
+  <si>
+    <t>Зубова</t>
+  </si>
+  <si>
+    <t>st101671</t>
+  </si>
+  <si>
+    <t>Зуева</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>st094438</t>
+  </si>
+  <si>
+    <t>Ибрагимова</t>
+  </si>
+  <si>
+    <t>st096434</t>
+  </si>
+  <si>
+    <t>Кадысева</t>
+  </si>
+  <si>
+    <t>Ангелина</t>
+  </si>
+  <si>
+    <t>st096377</t>
+  </si>
+  <si>
+    <t>Кораблева</t>
+  </si>
+  <si>
+    <t>st096634</t>
+  </si>
+  <si>
     <t>Кременецкая</t>
   </si>
   <si>
@@ -394,129 +517,6 @@
     <t>st096628</t>
   </si>
   <si>
-    <t>Круглова</t>
-  </si>
-  <si>
-    <t>st101518</t>
-  </si>
-  <si>
-    <t>Курпяева</t>
-  </si>
-  <si>
-    <t>st096304</t>
-  </si>
-  <si>
-    <t>Морд</t>
-  </si>
-  <si>
-    <t>Антоний</t>
-  </si>
-  <si>
-    <t>st101543</t>
-  </si>
-  <si>
-    <t>Паршина</t>
-  </si>
-  <si>
-    <t>Юлия</t>
-  </si>
-  <si>
-    <t>st068842</t>
-  </si>
-  <si>
-    <t>Измаилова</t>
-  </si>
-  <si>
-    <t>Зари</t>
-  </si>
-  <si>
-    <t>st088302</t>
-  </si>
-  <si>
-    <t>Симеунович</t>
-  </si>
-  <si>
-    <t>Давид</t>
-  </si>
-  <si>
-    <t>st093258</t>
-  </si>
-  <si>
-    <t>Дудина</t>
-  </si>
-  <si>
-    <t>Валентина</t>
-  </si>
-  <si>
-    <t>st101565</t>
-  </si>
-  <si>
-    <t>Ефременкова</t>
-  </si>
-  <si>
-    <t>st096616</t>
-  </si>
-  <si>
-    <t>Жданова</t>
-  </si>
-  <si>
-    <t>st101569</t>
-  </si>
-  <si>
-    <t>Жиляева</t>
-  </si>
-  <si>
-    <t>Валерия</t>
-  </si>
-  <si>
-    <t>st101561</t>
-  </si>
-  <si>
-    <t>st094429</t>
-  </si>
-  <si>
-    <t>Зубова</t>
-  </si>
-  <si>
-    <t>st101671</t>
-  </si>
-  <si>
-    <t>Зуева</t>
-  </si>
-  <si>
-    <t>Яна</t>
-  </si>
-  <si>
-    <t>st094438</t>
-  </si>
-  <si>
-    <t>Ибрагимова</t>
-  </si>
-  <si>
-    <t>st096434</t>
-  </si>
-  <si>
-    <t>Кадысева</t>
-  </si>
-  <si>
-    <t>Ангелина</t>
-  </si>
-  <si>
-    <t>st096377</t>
-  </si>
-  <si>
-    <t>Кораблева</t>
-  </si>
-  <si>
-    <t>st096634</t>
-  </si>
-  <si>
-    <t>Кравченко</t>
-  </si>
-  <si>
-    <t>st096624</t>
-  </si>
-  <si>
     <t>Крылова</t>
   </si>
   <si>
@@ -661,54 +661,54 @@
     <t>st101479</t>
   </si>
   <si>
+    <t>Азаров</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>st096374</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>st096375</t>
+  </si>
+  <si>
+    <t>Валерьянова</t>
+  </si>
+  <si>
+    <t>st094436</t>
+  </si>
+  <si>
+    <t>Вингерт</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>st101474</t>
+  </si>
+  <si>
+    <t>Воинков</t>
+  </si>
+  <si>
+    <t>Святослав</t>
+  </si>
+  <si>
+    <t>st096595</t>
+  </si>
+  <si>
     <t>Миронова</t>
   </si>
   <si>
     <t>st096359</t>
   </si>
   <si>
-    <t>Азаров</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>st096374</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Борис</t>
-  </si>
-  <si>
-    <t>st096375</t>
-  </si>
-  <si>
-    <t>Валерьянова</t>
-  </si>
-  <si>
-    <t>st094436</t>
-  </si>
-  <si>
-    <t>Вингерт</t>
-  </si>
-  <si>
-    <t>Диана</t>
-  </si>
-  <si>
-    <t>st101474</t>
-  </si>
-  <si>
-    <t>Воинков</t>
-  </si>
-  <si>
-    <t>Святослав</t>
-  </si>
-  <si>
-    <t>st096595</t>
-  </si>
-  <si>
     <t>Михайлов</t>
   </si>
   <si>
@@ -835,6 +835,15 @@
     <t>st096301</t>
   </si>
   <si>
+    <t>Пономарев</t>
+  </si>
+  <si>
+    <t>Марк</t>
+  </si>
+  <si>
+    <t>st113681</t>
+  </si>
+  <si>
     <t>Салова</t>
   </si>
   <si>
@@ -881,15 +890,6 @@
   </si>
   <si>
     <t>st096594</t>
-  </si>
-  <si>
-    <t>Пономарев</t>
-  </si>
-  <si>
-    <t>Марк</t>
-  </si>
-  <si>
-    <t>st113681</t>
   </si>
   <si>
     <t>Юшина</t>
@@ -1966,16 +1966,16 @@
         <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="D28" s="7">
         <v>2.0</v>
       </c>
       <c r="E28" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F28" s="6">
         <v>1.0</v>
@@ -1984,24 +1984,24 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D29" s="5">
         <v>2.0</v>
       </c>
       <c r="E29" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F29" s="6">
         <v>1.0</v>
@@ -2010,41 +2010,41 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D30" s="5">
         <v>2.0</v>
       </c>
       <c r="E30" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F30" s="6">
         <v>1.0</v>
       </c>
       <c r="G30" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="H30" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>93</v>
@@ -2059,7 +2059,7 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="H31" s="6">
         <v>1.5</v>
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D32" s="5">
         <v>2.0</v>
       </c>
       <c r="E32" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F32" s="6">
         <v>1.0</v>
@@ -2088,24 +2088,24 @@
         <v>1.0</v>
       </c>
       <c r="H32" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D33" s="5">
         <v>2.0</v>
       </c>
       <c r="E33" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F33" s="6">
         <v>1.0</v>
@@ -2114,24 +2114,24 @@
         <v>1.0</v>
       </c>
       <c r="H33" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>2.0</v>
       </c>
       <c r="E34" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F34" s="6">
         <v>1.0</v>
@@ -2140,7 +2140,7 @@
         <v>1.0</v>
       </c>
       <c r="H34" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35">
@@ -2226,17 +2226,14 @@
         <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="5">
+        <v>112</v>
+      </c>
+      <c r="D38" s="7">
         <v>3.0</v>
       </c>
-      <c r="E38" s="6">
-        <v>1.5</v>
-      </c>
       <c r="F38" s="6">
         <v>1.0</v>
       </c>
@@ -2244,15 +2241,15 @@
         <v>1.0</v>
       </c>
       <c r="H38" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>114</v>
@@ -2261,16 +2258,16 @@
         <v>3.0</v>
       </c>
       <c r="E39" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F39" s="6">
         <v>1.0</v>
       </c>
       <c r="G39" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2287,16 +2284,16 @@
         <v>3.0</v>
       </c>
       <c r="E40" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F40" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="G40" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -2310,7 +2307,7 @@
         <v>120</v>
       </c>
       <c r="D41" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E41" s="6">
         <v>1.5</v>
@@ -2322,7 +2319,7 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -2330,7 +2327,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>122</v>
@@ -2339,16 +2336,16 @@
         <v>3.0</v>
       </c>
       <c r="E42" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F42" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G42" s="6">
         <v>1.0</v>
       </c>
       <c r="H42" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43">
@@ -2356,7 +2353,7 @@
         <v>123</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>124</v>
@@ -2364,6 +2361,9 @@
       <c r="D43" s="5">
         <v>3.0</v>
       </c>
+      <c r="E43" s="6">
+        <v>1.0</v>
+      </c>
       <c r="F43" s="6">
         <v>1.0</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -2379,58 +2379,58 @@
         <v>125</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D44" s="5">
         <v>3.0</v>
       </c>
       <c r="F44" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="D45" s="5">
         <v>3.0</v>
       </c>
       <c r="F45" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>3.0</v>
       </c>
       <c r="F46" s="6">
@@ -2445,13 +2445,13 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D47" s="7">
         <v>3.0</v>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D48" s="5">
         <v>4.0</v>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D49" s="5">
         <v>4.0</v>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="5">
         <v>4.0</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D51" s="5">
         <v>4.0</v>
@@ -2569,13 +2569,13 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="5">
         <v>4.0</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="5">
         <v>4.0</v>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D54" s="5">
         <v>4.0</v>
@@ -2647,13 +2647,13 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D55" s="5">
         <v>4.0</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D56" s="5">
         <v>4.0</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="5">
         <v>4.0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>161</v>
@@ -2743,10 +2743,10 @@
         <v>1.5</v>
       </c>
       <c r="G58" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -2895,6 +2895,12 @@
       <c r="F64" s="6">
         <v>1.4</v>
       </c>
+      <c r="G64" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
@@ -2915,6 +2921,12 @@
       <c r="F65" s="6">
         <v>1.2</v>
       </c>
+      <c r="G65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
@@ -2935,13 +2947,19 @@
       <c r="F66" s="6">
         <v>1.0</v>
       </c>
+      <c r="G66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>183</v>
@@ -2954,6 +2972,12 @@
       </c>
       <c r="F67" s="6">
         <v>1.2</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">
@@ -2961,7 +2985,7 @@
         <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>185</v>
@@ -2973,6 +2997,12 @@
         <v>1.5</v>
       </c>
       <c r="F68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H68" s="6">
         <v>1.5</v>
       </c>
     </row>
@@ -2995,6 +3025,12 @@
       <c r="F69" s="6">
         <v>1.0</v>
       </c>
+      <c r="G69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
@@ -3015,6 +3051,12 @@
       <c r="F70" s="6">
         <v>0.0</v>
       </c>
+      <c r="G70" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
@@ -3035,6 +3077,9 @@
       <c r="F71" s="6">
         <v>1.4</v>
       </c>
+      <c r="H71" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
@@ -3055,13 +3100,19 @@
       <c r="F72" s="6">
         <v>1.3</v>
       </c>
+      <c r="G72" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>197</v>
@@ -3074,6 +3125,12 @@
       </c>
       <c r="F73" s="6">
         <v>1.5</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -3095,6 +3152,12 @@
       <c r="F74" s="6">
         <v>1.0</v>
       </c>
+      <c r="G74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
@@ -3115,6 +3178,12 @@
       <c r="F75" s="6">
         <v>1.1</v>
       </c>
+      <c r="G75" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
@@ -3135,6 +3204,12 @@
       <c r="F76" s="6">
         <v>1.3</v>
       </c>
+      <c r="G76" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
@@ -3155,6 +3230,12 @@
       <c r="F77" s="6">
         <v>0.0</v>
       </c>
+      <c r="G77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
@@ -3175,16 +3256,22 @@
       <c r="F78" s="6">
         <v>1.4</v>
       </c>
+      <c r="G78" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D79" s="5">
         <v>6.0</v>
@@ -3192,22 +3279,25 @@
       <c r="E79" s="6">
         <v>1.5</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="6">
         <v>1.5</v>
       </c>
       <c r="G79" s="6">
-        <v>1.0</v>
+        <v>1.3</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D80" s="5">
         <v>6.0</v>
@@ -3215,19 +3305,22 @@
       <c r="E80" s="6">
         <v>1.5</v>
       </c>
-      <c r="F80" s="12">
-        <v>0.0</v>
+      <c r="F80" s="11">
+        <v>1.5</v>
       </c>
       <c r="G80" s="6">
         <v>1.3</v>
       </c>
+      <c r="H80" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>217</v>
@@ -3243,6 +3336,9 @@
       </c>
       <c r="G81" s="6">
         <v>1.3</v>
+      </c>
+      <c r="H81" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -3250,53 +3346,59 @@
         <v>218</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D82" s="5">
         <v>6.0</v>
       </c>
       <c r="E82" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F82" s="11">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="G82" s="6">
-        <v>1.3</v>
+        <v>0.0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" s="5">
         <v>6.0</v>
       </c>
       <c r="E83" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F83" s="11">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="G83" s="6">
-        <v>0.0</v>
+        <v>1.4</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>225</v>
@@ -3311,7 +3413,10 @@
         <v>1.5</v>
       </c>
       <c r="G84" s="6">
-        <v>1.4</v>
+        <v>1.0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -3336,6 +3441,9 @@
       <c r="G85" s="6">
         <v>0.0</v>
       </c>
+      <c r="H85" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
@@ -3359,6 +3467,9 @@
       <c r="G86" s="6">
         <v>1.1</v>
       </c>
+      <c r="H86" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
@@ -3382,13 +3493,16 @@
       <c r="G87" s="6">
         <v>1.4</v>
       </c>
+      <c r="H87" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>234</v>
@@ -3404,6 +3518,9 @@
       </c>
       <c r="G88" s="6">
         <v>1.3</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
@@ -3428,10 +3545,13 @@
       <c r="G89" s="6">
         <v>1.5</v>
       </c>
+      <c r="H89" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>43</v>
@@ -3450,6 +3570,9 @@
       </c>
       <c r="G90" s="6">
         <v>1.3</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -3474,6 +3597,9 @@
       <c r="G91" s="6">
         <v>1.0</v>
       </c>
+      <c r="H91" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
@@ -3497,6 +3623,9 @@
       <c r="G92" s="6">
         <v>1.5</v>
       </c>
+      <c r="H92" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -3517,6 +3646,9 @@
       <c r="F93" s="11">
         <v>0.0</v>
       </c>
+      <c r="H93" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
@@ -3757,7 +3889,7 @@
         <v>266</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>267</v>
@@ -3785,23 +3917,23 @@
       <c r="B104" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="7">
         <v>7.0</v>
       </c>
       <c r="E104" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F104" s="6">
         <v>1.0</v>
       </c>
       <c r="G104" s="6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H104" s="6">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="105">
@@ -3809,33 +3941,33 @@
         <v>271</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D105" s="5">
         <v>7.0</v>
       </c>
       <c r="E105" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="F105" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="G105" s="6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H105" s="6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>275</v>
@@ -3847,13 +3979,13 @@
         <v>1.5</v>
       </c>
       <c r="F106" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G106" s="6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H106" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107">
@@ -3861,16 +3993,16 @@
         <v>276</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D107" s="5">
         <v>7.0</v>
       </c>
       <c r="E107" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="F107" s="6">
         <v>1.0</v>
@@ -3879,15 +4011,15 @@
         <v>1.2</v>
       </c>
       <c r="H107" s="6">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>280</v>
@@ -3896,13 +4028,13 @@
         <v>7.0</v>
       </c>
       <c r="E108" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F108" s="6">
         <v>1.0</v>
       </c>
       <c r="G108" s="6">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="H108" s="6">
         <v>1.0</v>
@@ -3922,16 +4054,16 @@
         <v>7.0</v>
       </c>
       <c r="E109" s="6">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="F109" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="G109" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="H109" s="6">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
@@ -3941,23 +4073,23 @@
       <c r="B110" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="5">
         <v>7.0</v>
       </c>
       <c r="E110" s="6">
         <v>1.5</v>
       </c>
       <c r="F110" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="G110" s="6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H110" s="6">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111">

--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -1310,6 +1310,12 @@
       <c r="H2" s="6">
         <v>1.2</v>
       </c>
+      <c r="I2" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1336,6 +1342,12 @@
       <c r="H3" s="6">
         <v>1.5</v>
       </c>
+      <c r="I3" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1362,6 +1374,12 @@
       <c r="H4" s="6">
         <v>1.0</v>
       </c>
+      <c r="I4" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1388,6 +1406,12 @@
       <c r="H5" s="6">
         <v>1.3</v>
       </c>
+      <c r="I5" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1414,6 +1438,12 @@
       <c r="H6" s="6">
         <v>1.0</v>
       </c>
+      <c r="I6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -1440,6 +1470,12 @@
       <c r="H7" s="6">
         <v>1.2</v>
       </c>
+      <c r="I7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1466,6 +1502,12 @@
       <c r="H8" s="6">
         <v>1.0</v>
       </c>
+      <c r="I8" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1492,6 +1534,12 @@
       <c r="H9" s="6">
         <v>0.0</v>
       </c>
+      <c r="I9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1518,6 +1566,12 @@
       <c r="H10" s="6">
         <v>1.0</v>
       </c>
+      <c r="I10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -1544,6 +1598,12 @@
       <c r="H11" s="6">
         <v>1.3</v>
       </c>
+      <c r="I11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -1570,6 +1630,12 @@
       <c r="H12" s="6">
         <v>1.2</v>
       </c>
+      <c r="I12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1596,6 +1662,12 @@
       <c r="H13" s="6">
         <v>1.3</v>
       </c>
+      <c r="I13" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -1622,6 +1694,12 @@
       <c r="H14" s="6">
         <v>1.2</v>
       </c>
+      <c r="I14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -1648,6 +1726,12 @@
       <c r="H15" s="6">
         <v>1.2</v>
       </c>
+      <c r="I15" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1674,6 +1758,12 @@
       <c r="H16" s="6">
         <v>1.5</v>
       </c>
+      <c r="I16" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1700,6 +1790,12 @@
       <c r="H17" s="6">
         <v>1.3</v>
       </c>
+      <c r="I17" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -1726,6 +1822,12 @@
       <c r="H18" s="6">
         <v>0.0</v>
       </c>
+      <c r="I18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1752,6 +1854,12 @@
       <c r="H19" s="6">
         <v>1.0</v>
       </c>
+      <c r="I19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -1778,6 +1886,12 @@
       <c r="H20" s="6">
         <v>1.5</v>
       </c>
+      <c r="I20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -1804,6 +1918,12 @@
       <c r="H21" s="6">
         <v>1.0</v>
       </c>
+      <c r="I21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1830,6 +1950,12 @@
       <c r="H22" s="6">
         <v>1.5</v>
       </c>
+      <c r="I22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -1856,6 +1982,12 @@
       <c r="H23" s="6">
         <v>1.0</v>
       </c>
+      <c r="I23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -1882,6 +2014,12 @@
       <c r="H24" s="6">
         <v>1.0</v>
       </c>
+      <c r="I24" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -1908,6 +2046,12 @@
       <c r="H25" s="6">
         <v>0.0</v>
       </c>
+      <c r="I25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1934,6 +2078,12 @@
       <c r="H26" s="6">
         <v>1.0</v>
       </c>
+      <c r="I26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
@@ -1960,6 +2110,12 @@
       <c r="H27" s="6">
         <v>1.5</v>
       </c>
+      <c r="I27" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -1986,6 +2142,12 @@
       <c r="H28" s="6">
         <v>1.0</v>
       </c>
+      <c r="I28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
@@ -2012,6 +2174,12 @@
       <c r="H29" s="6">
         <v>1.5</v>
       </c>
+      <c r="I29" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
@@ -2038,6 +2206,12 @@
       <c r="H30" s="6">
         <v>1.0</v>
       </c>
+      <c r="I30" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -2064,6 +2238,12 @@
       <c r="H31" s="6">
         <v>1.5</v>
       </c>
+      <c r="I31" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
@@ -2090,6 +2270,12 @@
       <c r="H32" s="6">
         <v>1.5</v>
       </c>
+      <c r="I32" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
@@ -2116,6 +2302,12 @@
       <c r="H33" s="6">
         <v>1.0</v>
       </c>
+      <c r="I33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
@@ -2142,6 +2334,12 @@
       <c r="H34" s="6">
         <v>1.5</v>
       </c>
+      <c r="I34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
@@ -2168,6 +2366,12 @@
       <c r="H35" s="6">
         <v>1.0</v>
       </c>
+      <c r="I35" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
@@ -2194,6 +2398,12 @@
       <c r="H36" s="6">
         <v>1.0</v>
       </c>
+      <c r="I36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
@@ -2220,6 +2430,12 @@
       <c r="H37" s="6">
         <v>1.5</v>
       </c>
+      <c r="I37" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
@@ -2243,6 +2459,12 @@
       <c r="H38" s="6">
         <v>0.0</v>
       </c>
+      <c r="I38" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
@@ -2269,6 +2491,12 @@
       <c r="H39" s="6">
         <v>1.0</v>
       </c>
+      <c r="I39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
@@ -2295,6 +2523,12 @@
       <c r="H40" s="6">
         <v>0.0</v>
       </c>
+      <c r="I40" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
@@ -2321,6 +2555,12 @@
       <c r="H41" s="6">
         <v>1.5</v>
       </c>
+      <c r="I41" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
@@ -2347,6 +2587,12 @@
       <c r="H42" s="6">
         <v>1.5</v>
       </c>
+      <c r="I42" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
@@ -2373,6 +2619,12 @@
       <c r="H43" s="6">
         <v>1.0</v>
       </c>
+      <c r="I43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
@@ -2396,6 +2648,12 @@
       <c r="H44" s="6">
         <v>0.0</v>
       </c>
+      <c r="I44" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
@@ -2419,6 +2677,12 @@
       <c r="H45" s="6">
         <v>0.0</v>
       </c>
+      <c r="I45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
@@ -2442,6 +2706,12 @@
       <c r="H46" s="6">
         <v>0.0</v>
       </c>
+      <c r="I46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
@@ -2462,6 +2732,12 @@
       <c r="H47" s="6">
         <v>1.0</v>
       </c>
+      <c r="I47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
@@ -2488,6 +2764,12 @@
       <c r="H48" s="6">
         <v>1.0</v>
       </c>
+      <c r="I48" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
@@ -2514,6 +2796,12 @@
       <c r="H49" s="6">
         <v>1.0</v>
       </c>
+      <c r="I49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
@@ -2540,6 +2828,12 @@
       <c r="H50" s="6">
         <v>1.0</v>
       </c>
+      <c r="I50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
@@ -2566,6 +2860,12 @@
       <c r="H51" s="6">
         <v>1.0</v>
       </c>
+      <c r="I51" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
@@ -2592,6 +2892,12 @@
       <c r="H52" s="6">
         <v>1.0</v>
       </c>
+      <c r="I52" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
@@ -2618,6 +2924,12 @@
       <c r="H53" s="6">
         <v>1.0</v>
       </c>
+      <c r="I53" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
@@ -2644,6 +2956,12 @@
       <c r="H54" s="6">
         <v>1.0</v>
       </c>
+      <c r="I54" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
@@ -2670,6 +2988,12 @@
       <c r="H55" s="6">
         <v>1.5</v>
       </c>
+      <c r="I55" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
@@ -2696,6 +3020,12 @@
       <c r="H56" s="6">
         <v>1.0</v>
       </c>
+      <c r="I56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
@@ -2722,6 +3052,12 @@
       <c r="H57" s="6">
         <v>1.0</v>
       </c>
+      <c r="I57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
@@ -2748,6 +3084,12 @@
       <c r="H58" s="6">
         <v>1.0</v>
       </c>
+      <c r="I58" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
@@ -2771,6 +3113,12 @@
       <c r="H59" s="6">
         <v>0.0</v>
       </c>
+      <c r="I59" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
@@ -2797,6 +3145,12 @@
       <c r="H60" s="6">
         <v>1.0</v>
       </c>
+      <c r="I60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
@@ -2823,6 +3177,12 @@
       <c r="H61" s="6">
         <v>1.0</v>
       </c>
+      <c r="I61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
@@ -2849,6 +3209,12 @@
       <c r="H62" s="6">
         <v>1.0</v>
       </c>
+      <c r="I62" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
@@ -2875,6 +3241,12 @@
       <c r="H63" s="6">
         <v>1.5</v>
       </c>
+      <c r="I63" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
@@ -2901,6 +3273,12 @@
       <c r="H64" s="6">
         <v>1.5</v>
       </c>
+      <c r="I64" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
@@ -2927,6 +3305,12 @@
       <c r="H65" s="6">
         <v>1.5</v>
       </c>
+      <c r="I65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
@@ -2953,6 +3337,12 @@
       <c r="H66" s="6">
         <v>0.0</v>
       </c>
+      <c r="I66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
@@ -2979,6 +3369,12 @@
       <c r="H67" s="6">
         <v>1.5</v>
       </c>
+      <c r="I67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
@@ -3005,6 +3401,12 @@
       <c r="H68" s="6">
         <v>1.5</v>
       </c>
+      <c r="I68" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
@@ -3031,6 +3433,12 @@
       <c r="H69" s="6">
         <v>1.0</v>
       </c>
+      <c r="I69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
@@ -3057,6 +3465,12 @@
       <c r="H70" s="6">
         <v>1.5</v>
       </c>
+      <c r="I70" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
@@ -3080,6 +3494,12 @@
       <c r="H71" s="6">
         <v>1.0</v>
       </c>
+      <c r="I71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
@@ -3106,6 +3526,12 @@
       <c r="H72" s="6">
         <v>1.0</v>
       </c>
+      <c r="I72" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
@@ -3132,6 +3558,12 @@
       <c r="H73" s="6">
         <v>0.0</v>
       </c>
+      <c r="I73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
@@ -3158,6 +3590,12 @@
       <c r="H74" s="6">
         <v>1.0</v>
       </c>
+      <c r="I74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
@@ -3184,6 +3622,12 @@
       <c r="H75" s="6">
         <v>1.0</v>
       </c>
+      <c r="I75" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
@@ -3210,6 +3654,12 @@
       <c r="H76" s="6">
         <v>1.0</v>
       </c>
+      <c r="I76" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
@@ -3236,6 +3686,12 @@
       <c r="H77" s="6">
         <v>0.0</v>
       </c>
+      <c r="I77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
@@ -3262,6 +3718,12 @@
       <c r="H78" s="6">
         <v>0.0</v>
       </c>
+      <c r="I78" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
@@ -3288,6 +3750,12 @@
       <c r="H79" s="6">
         <v>1.5</v>
       </c>
+      <c r="I79" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
@@ -3314,6 +3782,12 @@
       <c r="H80" s="6">
         <v>1.5</v>
       </c>
+      <c r="I80" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J80" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
@@ -3340,6 +3814,12 @@
       <c r="H81" s="6">
         <v>1.0</v>
       </c>
+      <c r="I81" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
@@ -3366,6 +3846,12 @@
       <c r="H82" s="6">
         <v>1.0</v>
       </c>
+      <c r="I82" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
@@ -3392,6 +3878,12 @@
       <c r="H83" s="6">
         <v>1.5</v>
       </c>
+      <c r="I83" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
@@ -3418,6 +3910,12 @@
       <c r="H84" s="6">
         <v>1.0</v>
       </c>
+      <c r="I84" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
@@ -3444,6 +3942,12 @@
       <c r="H85" s="6">
         <v>0.0</v>
       </c>
+      <c r="I85" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
@@ -3470,6 +3974,12 @@
       <c r="H86" s="6">
         <v>1.0</v>
       </c>
+      <c r="I86" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
@@ -3496,6 +4006,12 @@
       <c r="H87" s="6">
         <v>1.5</v>
       </c>
+      <c r="I87" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
@@ -3522,6 +4038,12 @@
       <c r="H88" s="6">
         <v>1.5</v>
       </c>
+      <c r="I88" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
@@ -3548,6 +4070,12 @@
       <c r="H89" s="6">
         <v>1.0</v>
       </c>
+      <c r="I89" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
@@ -3574,6 +4102,12 @@
       <c r="H90" s="6">
         <v>1.0</v>
       </c>
+      <c r="I90" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
@@ -3600,6 +4134,12 @@
       <c r="H91" s="6">
         <v>1.0</v>
       </c>
+      <c r="I91" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
@@ -3626,6 +4166,12 @@
       <c r="H92" s="6">
         <v>1.0</v>
       </c>
+      <c r="I92" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -3649,6 +4195,9 @@
       <c r="H93" s="6">
         <v>1.5</v>
       </c>
+      <c r="J93" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
@@ -3675,6 +4224,12 @@
       <c r="H94" s="6">
         <v>0.0</v>
       </c>
+      <c r="I94" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
@@ -3701,6 +4256,12 @@
       <c r="H95" s="6">
         <v>0.0</v>
       </c>
+      <c r="I95" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J95" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
@@ -3727,6 +4288,12 @@
       <c r="H96" s="6">
         <v>1.0</v>
       </c>
+      <c r="I96" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
@@ -3753,6 +4320,12 @@
       <c r="H97" s="6">
         <v>0.0</v>
       </c>
+      <c r="I97" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
@@ -3779,6 +4352,9 @@
       <c r="H98" s="6">
         <v>1.0</v>
       </c>
+      <c r="J98" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
@@ -3805,6 +4381,9 @@
       <c r="H99" s="6">
         <v>1.4</v>
       </c>
+      <c r="J99" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
@@ -3831,6 +4410,12 @@
       <c r="H100" s="6">
         <v>1.0</v>
       </c>
+      <c r="I100" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
@@ -3857,6 +4442,12 @@
       <c r="H101" s="6">
         <v>1.0</v>
       </c>
+      <c r="I101" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J101" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
@@ -3883,6 +4474,9 @@
       <c r="H102" s="6">
         <v>0.0</v>
       </c>
+      <c r="J102" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
@@ -3909,6 +4503,12 @@
       <c r="H103" s="6">
         <v>1.4</v>
       </c>
+      <c r="I103" s="6">
+        <v>1.1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
@@ -3935,6 +4535,9 @@
       <c r="H104" s="6">
         <v>1.0</v>
       </c>
+      <c r="J104" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
@@ -3961,6 +4564,12 @@
       <c r="H105" s="6">
         <v>1.2</v>
       </c>
+      <c r="I105" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
@@ -3987,6 +4596,12 @@
       <c r="H106" s="6">
         <v>1.5</v>
       </c>
+      <c r="I106" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J106" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
@@ -4013,6 +4628,12 @@
       <c r="H107" s="6">
         <v>1.4</v>
       </c>
+      <c r="I107" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J107" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
@@ -4039,6 +4660,12 @@
       <c r="H108" s="6">
         <v>1.0</v>
       </c>
+      <c r="I108" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
@@ -4065,6 +4692,12 @@
       <c r="H109" s="6">
         <v>1.0</v>
       </c>
+      <c r="I109" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
@@ -4091,8 +4724,14 @@
       <c r="H110" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="111">
+      <c r="I110" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J110" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" hidden="1">
       <c r="A111" s="4" t="s">
         <v>287</v>
       </c>
@@ -4103,8 +4742,11 @@
         <v>288</v>
       </c>
       <c r="D111" s="7"/>
-    </row>
-    <row r="112">
+      <c r="I111" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112" hidden="1">
       <c r="A112" s="4" t="s">
         <v>289</v>
       </c>
@@ -4117,7 +4759,19 @@
       <c r="D112" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$112"/>
+  <autoFilter ref="$A$1:$D$112">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>

--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$D$112</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$D$114</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="291">
   <si>
     <t>Family</t>
   </si>
@@ -1316,6 +1316,9 @@
       <c r="J2" s="6">
         <v>1.5</v>
       </c>
+      <c r="K2" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1348,6 +1351,9 @@
       <c r="J3" s="6">
         <v>1.1</v>
       </c>
+      <c r="K3" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1380,6 +1386,9 @@
       <c r="J4" s="6">
         <v>1.0</v>
       </c>
+      <c r="K4" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1412,6 +1421,9 @@
       <c r="J5" s="6">
         <v>1.0</v>
       </c>
+      <c r="K5" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1444,6 +1456,9 @@
       <c r="J6" s="6">
         <v>1.0</v>
       </c>
+      <c r="K6" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -1476,6 +1491,9 @@
       <c r="J7" s="6">
         <v>1.5</v>
       </c>
+      <c r="K7" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1508,6 +1526,9 @@
       <c r="J8" s="6">
         <v>1.1</v>
       </c>
+      <c r="K8" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1540,6 +1561,9 @@
       <c r="J9" s="6">
         <v>1.0</v>
       </c>
+      <c r="K9" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -1572,6 +1596,9 @@
       <c r="J10" s="6">
         <v>1.0</v>
       </c>
+      <c r="K10" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -1604,6 +1631,9 @@
       <c r="J11" s="6">
         <v>1.0</v>
       </c>
+      <c r="K11" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -1636,6 +1666,9 @@
       <c r="J12" s="6">
         <v>1.0</v>
       </c>
+      <c r="K12" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1668,6 +1701,9 @@
       <c r="J13" s="6">
         <v>1.1</v>
       </c>
+      <c r="K13" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -1700,6 +1736,9 @@
       <c r="J14" s="6">
         <v>1.1</v>
       </c>
+      <c r="K14" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -1732,6 +1771,9 @@
       <c r="J15" s="6">
         <v>1.0</v>
       </c>
+      <c r="K15" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1764,6 +1806,9 @@
       <c r="J16" s="6">
         <v>1.2</v>
       </c>
+      <c r="K16" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1796,6 +1841,9 @@
       <c r="J17" s="6">
         <v>1.5</v>
       </c>
+      <c r="K17" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -1828,6 +1876,9 @@
       <c r="J18" s="6">
         <v>1.0</v>
       </c>
+      <c r="K18" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1860,6 +1911,9 @@
       <c r="J19" s="6">
         <v>1.0</v>
       </c>
+      <c r="K19" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -1892,6 +1946,9 @@
       <c r="J20" s="6">
         <v>1.4</v>
       </c>
+      <c r="K20" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -1924,6 +1981,9 @@
       <c r="J21" s="6">
         <v>1.0</v>
       </c>
+      <c r="K21" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1956,6 +2016,9 @@
       <c r="J22" s="6">
         <v>1.4</v>
       </c>
+      <c r="K22" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -2020,6 +2083,9 @@
       <c r="J24" s="6">
         <v>1.0</v>
       </c>
+      <c r="K24" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -2116,6 +2182,9 @@
       <c r="J27" s="6">
         <v>1.3</v>
       </c>
+      <c r="K27" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -2180,6 +2249,9 @@
       <c r="J29" s="6">
         <v>1.5</v>
       </c>
+      <c r="K29" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
@@ -2212,6 +2284,9 @@
       <c r="J30" s="6">
         <v>1.5</v>
       </c>
+      <c r="K30" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -2244,6 +2319,9 @@
       <c r="J31" s="6">
         <v>1.5</v>
       </c>
+      <c r="K31" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
@@ -2276,6 +2354,9 @@
       <c r="J32" s="6">
         <v>1.1</v>
       </c>
+      <c r="K32" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
@@ -2308,6 +2389,9 @@
       <c r="J33" s="6">
         <v>1.0</v>
       </c>
+      <c r="K33" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
@@ -2335,10 +2419,13 @@
         <v>1.5</v>
       </c>
       <c r="I34" s="6">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="J34" s="6">
         <v>1.4</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -2372,6 +2459,9 @@
       <c r="J35" s="6">
         <v>1.3</v>
       </c>
+      <c r="K35" s="6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
@@ -2404,6 +2494,9 @@
       <c r="J36" s="6">
         <v>1.0</v>
       </c>
+      <c r="K36" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
@@ -2436,6 +2529,9 @@
       <c r="J37" s="6">
         <v>1.5</v>
       </c>
+      <c r="K37" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
@@ -2465,6 +2561,9 @@
       <c r="J38" s="6">
         <v>0.0</v>
       </c>
+      <c r="K38" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
@@ -2497,6 +2596,9 @@
       <c r="J39" s="6">
         <v>1.0</v>
       </c>
+      <c r="K39" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
@@ -2529,6 +2631,9 @@
       <c r="J40" s="6">
         <v>1.0</v>
       </c>
+      <c r="K40" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
@@ -2561,6 +2666,9 @@
       <c r="J41" s="6">
         <v>1.5</v>
       </c>
+      <c r="K41" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
@@ -2593,6 +2701,9 @@
       <c r="J42" s="6">
         <v>1.2</v>
       </c>
+      <c r="K42" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
@@ -2625,6 +2736,9 @@
       <c r="J43" s="6">
         <v>1.0</v>
       </c>
+      <c r="K43" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
@@ -2654,6 +2768,9 @@
       <c r="J44" s="6">
         <v>0.0</v>
       </c>
+      <c r="K44" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
@@ -2683,6 +2800,9 @@
       <c r="J45" s="6">
         <v>0.0</v>
       </c>
+      <c r="K45" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
@@ -2712,6 +2832,9 @@
       <c r="J46" s="6">
         <v>0.0</v>
       </c>
+      <c r="K46" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
@@ -2738,6 +2861,9 @@
       <c r="J47" s="6">
         <v>1.0</v>
       </c>
+      <c r="K47" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
@@ -2770,6 +2896,9 @@
       <c r="J48" s="6">
         <v>1.0</v>
       </c>
+      <c r="K48" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
@@ -2802,6 +2931,9 @@
       <c r="J49" s="6">
         <v>1.5</v>
       </c>
+      <c r="K49" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
@@ -2834,6 +2966,9 @@
       <c r="J50" s="6">
         <v>1.0</v>
       </c>
+      <c r="K50" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
@@ -2866,6 +3001,9 @@
       <c r="J51" s="6">
         <v>0.0</v>
       </c>
+      <c r="K51" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
@@ -2898,6 +3036,9 @@
       <c r="J52" s="6">
         <v>0.0</v>
       </c>
+      <c r="K52" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
@@ -2930,6 +3071,9 @@
       <c r="J53" s="6">
         <v>0.0</v>
       </c>
+      <c r="K53" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
@@ -2962,6 +3106,9 @@
       <c r="J54" s="6">
         <v>1.5</v>
       </c>
+      <c r="K54" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
@@ -2994,6 +3141,9 @@
       <c r="J55" s="6">
         <v>0.0</v>
       </c>
+      <c r="K55" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
@@ -3026,6 +3176,9 @@
       <c r="J56" s="6">
         <v>1.5</v>
       </c>
+      <c r="K56" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
@@ -3058,6 +3211,9 @@
       <c r="J57" s="6">
         <v>1.5</v>
       </c>
+      <c r="K57" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
@@ -3090,6 +3246,9 @@
       <c r="J58" s="6">
         <v>1.5</v>
       </c>
+      <c r="K58" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
@@ -3119,6 +3278,9 @@
       <c r="J59" s="6">
         <v>0.0</v>
       </c>
+      <c r="K59" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
@@ -3151,6 +3313,9 @@
       <c r="J60" s="6">
         <v>1.0</v>
       </c>
+      <c r="K60" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
@@ -3183,6 +3348,9 @@
       <c r="J61" s="6">
         <v>1.0</v>
       </c>
+      <c r="K61" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
@@ -3215,6 +3383,9 @@
       <c r="J62" s="6">
         <v>1.5</v>
       </c>
+      <c r="K62" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
@@ -3247,6 +3418,9 @@
       <c r="J63" s="6">
         <v>1.5</v>
       </c>
+      <c r="K63" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
@@ -3279,6 +3453,9 @@
       <c r="J64" s="6">
         <v>1.0</v>
       </c>
+      <c r="K64" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
@@ -3311,6 +3488,9 @@
       <c r="J65" s="6">
         <v>1.5</v>
       </c>
+      <c r="K65" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
@@ -3343,6 +3523,9 @@
       <c r="J66" s="6">
         <v>1.0</v>
       </c>
+      <c r="K66" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
@@ -3375,6 +3558,9 @@
       <c r="J67" s="6">
         <v>1.5</v>
       </c>
+      <c r="K67" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
@@ -3407,6 +3593,9 @@
       <c r="J68" s="6">
         <v>1.5</v>
       </c>
+      <c r="K68" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
@@ -3439,6 +3628,9 @@
       <c r="J69" s="6">
         <v>1.0</v>
       </c>
+      <c r="K69" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
@@ -3471,6 +3663,9 @@
       <c r="J70" s="6">
         <v>0.0</v>
       </c>
+      <c r="K70" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
@@ -3500,6 +3695,9 @@
       <c r="J71" s="6">
         <v>1.0</v>
       </c>
+      <c r="K71" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
@@ -3532,6 +3730,9 @@
       <c r="J72" s="6">
         <v>1.0</v>
       </c>
+      <c r="K72" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
@@ -3564,6 +3765,9 @@
       <c r="J73" s="6">
         <v>1.5</v>
       </c>
+      <c r="K73" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
@@ -3596,6 +3800,9 @@
       <c r="J74" s="6">
         <v>1.0</v>
       </c>
+      <c r="K74" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
@@ -3628,6 +3835,9 @@
       <c r="J75" s="6">
         <v>1.0</v>
       </c>
+      <c r="K75" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
@@ -3660,6 +3870,9 @@
       <c r="J76" s="6">
         <v>1.5</v>
       </c>
+      <c r="K76" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
@@ -3692,6 +3905,9 @@
       <c r="J77" s="6">
         <v>1.0</v>
       </c>
+      <c r="K77" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
@@ -3724,6 +3940,9 @@
       <c r="J78" s="6">
         <v>1.25</v>
       </c>
+      <c r="K78" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
@@ -3756,6 +3975,9 @@
       <c r="J79" s="6">
         <v>1.0</v>
       </c>
+      <c r="K79" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
@@ -3788,6 +4010,9 @@
       <c r="J80" s="6">
         <v>1.0</v>
       </c>
+      <c r="K80" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
@@ -3820,6 +4045,9 @@
       <c r="J81" s="6">
         <v>1.0</v>
       </c>
+      <c r="K81" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
@@ -3852,6 +4080,9 @@
       <c r="J82" s="6">
         <v>1.0</v>
       </c>
+      <c r="K82" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
@@ -3884,6 +4115,9 @@
       <c r="J83" s="6">
         <v>1.0</v>
       </c>
+      <c r="K83" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
@@ -3916,6 +4150,9 @@
       <c r="J84" s="6">
         <v>0.0</v>
       </c>
+      <c r="K84" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
@@ -3948,6 +4185,9 @@
       <c r="J85" s="6">
         <v>0.0</v>
       </c>
+      <c r="K85" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
@@ -3980,6 +4220,9 @@
       <c r="J86" s="6">
         <v>0.0</v>
       </c>
+      <c r="K86" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
@@ -4012,6 +4255,9 @@
       <c r="J87" s="6">
         <v>1.0</v>
       </c>
+      <c r="K87" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
@@ -4044,6 +4290,9 @@
       <c r="J88" s="6">
         <v>0.0</v>
       </c>
+      <c r="K88" s="6">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
@@ -4076,6 +4325,9 @@
       <c r="J89" s="6">
         <v>1.0</v>
       </c>
+      <c r="K89" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
@@ -4108,6 +4360,9 @@
       <c r="J90" s="6">
         <v>1.0</v>
       </c>
+      <c r="K90" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
@@ -4140,6 +4395,9 @@
       <c r="J91" s="6">
         <v>1.0</v>
       </c>
+      <c r="K91" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
@@ -4172,6 +4430,9 @@
       <c r="J92" s="6">
         <v>1.0</v>
       </c>
+      <c r="K92" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -4198,6 +4459,9 @@
       <c r="J93" s="6">
         <v>0.0</v>
       </c>
+      <c r="K93" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
@@ -4230,6 +4494,9 @@
       <c r="J94" s="6">
         <v>1.5</v>
       </c>
+      <c r="K94" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
@@ -4262,6 +4529,9 @@
       <c r="J95" s="6">
         <v>1.5</v>
       </c>
+      <c r="K95" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
@@ -4294,6 +4564,9 @@
       <c r="J96" s="6">
         <v>1.0</v>
       </c>
+      <c r="K96" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
@@ -4326,6 +4599,9 @@
       <c r="J97" s="6">
         <v>1.5</v>
       </c>
+      <c r="K97" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
@@ -4355,6 +4631,9 @@
       <c r="J98" s="6">
         <v>1.0</v>
       </c>
+      <c r="K98" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
@@ -4384,6 +4663,9 @@
       <c r="J99" s="6">
         <v>1.5</v>
       </c>
+      <c r="K99" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
@@ -4416,6 +4698,9 @@
       <c r="J100" s="6">
         <v>1.0</v>
       </c>
+      <c r="K100" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
@@ -4448,6 +4733,9 @@
       <c r="J101" s="6">
         <v>1.0</v>
       </c>
+      <c r="K101" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
@@ -4477,6 +4765,9 @@
       <c r="J102" s="6">
         <v>1.5</v>
       </c>
+      <c r="K102" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
@@ -4509,6 +4800,9 @@
       <c r="J103" s="6">
         <v>1.0</v>
       </c>
+      <c r="K103" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
@@ -4538,6 +4832,9 @@
       <c r="J104" s="6">
         <v>1.0</v>
       </c>
+      <c r="K104" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
@@ -4570,6 +4867,9 @@
       <c r="J105" s="6">
         <v>0.0</v>
       </c>
+      <c r="K105" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
@@ -4602,6 +4902,9 @@
       <c r="J106" s="6">
         <v>1.0</v>
       </c>
+      <c r="K106" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
@@ -4634,6 +4937,9 @@
       <c r="J107" s="6">
         <v>1.5</v>
       </c>
+      <c r="K107" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
@@ -4666,6 +4972,9 @@
       <c r="J108" s="6">
         <v>1.0</v>
       </c>
+      <c r="K108" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
@@ -4698,6 +5007,9 @@
       <c r="J109" s="6">
         <v>1.5</v>
       </c>
+      <c r="K109" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
@@ -4730,6 +5042,9 @@
       <c r="J110" s="6">
         <v>1.5</v>
       </c>
+      <c r="K110" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="111" hidden="1">
       <c r="A111" s="4" t="s">
@@ -4745,6 +5060,9 @@
       <c r="I111" s="6">
         <v>1.0</v>
       </c>
+      <c r="K111" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112" hidden="1">
       <c r="A112" s="4" t="s">
@@ -4757,9 +5075,34 @@
         <v>290</v>
       </c>
       <c r="D112" s="7"/>
+      <c r="K112" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113" hidden="1">
+      <c r="A113" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K113" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114" hidden="1">
+      <c r="A114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" s="6">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$112">
+  <autoFilter ref="$A$1:$D$114">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
@@ -4771,6 +5114,9 @@
         <filter val="7"/>
       </filters>
     </filterColumn>
+    <sortState ref="A1:D114">
+      <sortCondition ref="D1:D114"/>
+    </sortState>
   </autoFilter>
   <printOptions gridLines="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -4221,7 +4221,7 @@
         <v>0.0</v>
       </c>
       <c r="K86" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">

--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -908,6 +908,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d.m"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10.0"/>
@@ -981,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1019,6 +1022,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -4421,8 +4427,8 @@
       <c r="G92" s="6">
         <v>1.5</v>
       </c>
-      <c r="H92" s="6">
-        <v>1.0</v>
+      <c r="H92" s="14">
+        <v>44682.0</v>
       </c>
       <c r="I92" s="6">
         <v>1.0</v>
@@ -5053,7 +5059,7 @@
       <c r="B111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="15" t="s">
         <v>288</v>
       </c>
       <c r="D111" s="7"/>
@@ -5071,7 +5077,7 @@
       <c r="B112" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="16" t="s">
         <v>290</v>
       </c>
       <c r="D112" s="7"/>

--- a/data/Семинары биологи 2022.xlsx
+++ b/data/Семинары биологи 2022.xlsx
@@ -1568,7 +1568,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
